--- a/StudentGradesMoodleFormat/Assignment1_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment1_Moodle_Grades.xlsx
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.13</v>
+        <v>2.47642382544722</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>100</v>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>40.58</v>
+        <v>42.75806278981952</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>32.81</v>
+        <v>35.77035289180932</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>100</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>45.95</v>
+        <v>48.30075479903226</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>36.23</v>
+        <v>38.40456802230448</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -743,7 +743,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>61.79</v>
+        <v>71.16323769537362</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>61.23</v>
+        <v>60.05058325379765</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>100</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>30.24</v>
+        <v>32.26597515617419</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>100</v>
@@ -901,7 +901,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>60.03</v>
+        <v>67.02237126211561</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>100</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>19.22</v>
+        <v>20.9763409466208</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>100</v>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>10.11</v>
+        <v>12.28359941721424</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>100</v>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>61.23</v>
+        <v>60.05058325379765</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>24.8</v>
+        <v>23.62611504402493</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>100</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>67.79000000000001</v>
+        <v>72.14415247054603</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>100</v>
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>67.79000000000001</v>
+        <v>72.14415247054603</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>100</v>
@@ -1260,7 +1260,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>89.56</v>
+        <v>89.5581315406062</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>100</v>
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>35.24</v>
+        <v>37.44786130765369</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>100</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>18.67</v>
+        <v>18.66698663275016</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>100</v>
@@ -1380,7 +1380,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>19.22</v>
+        <v>20.9763409466208</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>100</v>
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>40.15</v>
+        <v>42.26755467544957</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>100</v>
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45.95</v>
+        <v>48.30075479903226</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>100</v>
@@ -1500,7 +1500,7 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45.95</v>
+        <v>48.30075479903226</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>100</v>
@@ -1538,7 +1538,7 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>18.67</v>
+        <v>18.66698663275016</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>100</v>
@@ -1580,7 +1580,7 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>40.15</v>
+        <v>42.26755467544957</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>100</v>
@@ -1620,7 +1620,7 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>35.24</v>
+        <v>37.44786130765369</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>100</v>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>32.81</v>
+        <v>35.77035289180932</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>100</v>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>61.79</v>
+        <v>71.16323769537362</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>100</v>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>10.11</v>
+        <v>12.28359941721424</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>100</v>
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>89.56</v>
+        <v>89.5581315406062</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>100</v>

--- a/StudentGradesMoodleFormat/Assignment1_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment1_Moodle_Grades.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.47642382544722</v>
+        <v>2.48</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>100</v>
@@ -516,19 +516,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
+          <t>Quality Standards (3.5/10)
 Version Management (3.0/10)
-Costs Pricing (0.5/10)</t>
+Extensibility (4.5/10)</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>42.75806278981952</v>
+        <v>42.76</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -556,20 +556,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (3.0/10)
-Quality Standards (0.0/10)
-Config Security (4.0/10)
-Address Quality Standards (0/10 points)</t>
+          <t>Quality Standards (1.5/10)
+Extensibility (2.5/10)
+Config Security (4.0/10)</t>
         </is>
       </c>
     </row>
@@ -585,7 +584,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>35.77035289180932</v>
+        <v>35.77</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>100</v>
@@ -597,19 +596,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (3.0/10)
-Ui Ux (4.0/10)
-Quality Standards (3.0/10)</t>
+          <t>Ui Ux (4.0/10)
+Quality Standards (3.0/10)
+Version Management (3.0/10)</t>
         </is>
       </c>
     </row>
@@ -625,7 +624,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>48.30075479903226</v>
+        <v>48.3</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
@@ -637,17 +636,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.0/10)</t>
+          <t>Quality Standards (4.5/10)</t>
         </is>
       </c>
     </row>
@@ -663,7 +662,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>67.02237126211561</v>
+        <v>67.02</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
@@ -675,17 +674,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
+          <t>Quality Standards (3.5/10)
 Config Security (4.0/10)</t>
         </is>
       </c>
@@ -702,7 +701,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>38.40456802230448</v>
+        <v>38.4</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -714,19 +713,19 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (0.0/10)
+          <t>Quality Standards (1.5/10)
 Costs Pricing (0.0/10)
-Address Quality Standards (0/10 points)
+Extensibility (4.5/10)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
@@ -734,7 +733,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>משתתף:38959</t>
+          <t>משתתף:38958</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -743,7 +742,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>71.16323769537362</v>
+        <v>2.48</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
@@ -755,26 +754,26 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (3.0/10)
-Quality Standards (0.0/10)
-Address Quality Standards (0/10 points)</t>
+          <t>Quality Standards (3.5/10)
+Extensibility (4.5/10)
+Version Management (3.0/10)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>משתתף:38960</t>
+          <t>משתתף:38959</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -783,7 +782,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>60.05058325379765</v>
+        <v>71.16</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>
@@ -795,53 +794,91 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (2.0/10)</t>
+          <t>Quality Standards (1.5/10)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>משתתף:38960</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>60.05</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr">
+        <is>
+          <t>Extensibility (1.5/10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>משתתף:38962</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>23.62611504402493</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>Quality Standards (0.0/10)
 Config Security (4.0/10)
@@ -849,50 +886,10 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>משתתף:38963</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>32.26597515617419</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>Quality Standards (2.0/10)
-Version Management (3.0/10)
-Costs Pricing (0.5/10)</t>
-        </is>
-      </c>
-    </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>משתתף:38964</t>
+          <t>משתתף:38963</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -901,7 +898,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>67.02237126211561</v>
+        <v>32.27</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>100</v>
@@ -913,176 +910,216 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
-Config Security (4.0/10)</t>
+          <t>Quality Standards (3.5/10)
+Version Management (3.0/10)
+Extensibility (4.5/10)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>משתתף:38964</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>67.02</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (3.5/10)
+Config Security (4.0/10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>משתתף:38966</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>20.9763409466208</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
         <is>
           <t>Project Planning (0.0/10)
-Extensibility (3.0/10)
-Quality Standards (2.0/10)
+Quality Standards (3.5/10)
+Extensibility (2.5/10)
 Address Project Planning (0/10 points)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>משתתף:38969</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>12.28359941721424</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
         <is>
           <t>Project Planning (0.0/10)
-Quality Standards (2.0/10)
-Costs Pricing (0.0/10)
+Quality Standards (3.5/10)
+Version Management (4.0/10)
 Address Project Planning (0/10 points)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>משתתף:38970</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>60.05058325379765</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>Extensibility (2.0/10)</t>
-        </is>
-      </c>
-    </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>משתתף:38970</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>60.05</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>Extensibility (1.5/10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>משתתף:38971</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H16" s="3" t="inlineStr">
+      <c r="D17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>Project Planning (0.0/10)
 Ui Ux (3.0/10)
@@ -1091,39 +1128,39 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>משתתף:38973</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
+      <c r="D18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>Project Planning (0.0/10)
 Ui Ux (3.0/10)
@@ -1132,39 +1169,39 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>משתתף:38977</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>23.62611504402493</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>23.63</v>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>Quality Standards (0.0/10)
 Config Security (4.0/10)
@@ -1172,48 +1209,10 @@
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>משתתף:38979</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>72.14415247054603</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H19" s="3" t="inlineStr">
-        <is>
-          <t>Good work! Continue improving based on recommendations.</t>
-        </is>
-      </c>
-    </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>משתתף:38980</t>
+          <t>משתתף:38979</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1222,7 +1221,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>72.14415247054603</v>
+        <v>72.14</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>100</v>
@@ -1234,12 +1233,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H20" s="3" t="inlineStr">
@@ -1251,7 +1250,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>משתתף:38981</t>
+          <t>משתתף:38980</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1260,7 +1259,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>89.5581315406062</v>
+        <v>72.14</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>100</v>
@@ -1272,12 +1271,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H21" s="3" t="inlineStr">
@@ -1289,171 +1288,170 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>משתתף:38981</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>89.56</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>Good work! Continue improving based on recommendations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>משתתף:38982</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>37.44786130765369</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>Quality Standards (2.0/10)
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (3.5/10)
+Extensibility (4.5/10)
 Costs Pricing (0.0/10)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>משתתף:38984</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>18.66698663275016</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H23" s="3" t="inlineStr">
-        <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (2.0/10)
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H24" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (2.0/10)
+Extensibility (0.0/10)
 Costs Pricing (0.0/10)
 Address Extensibility (0/10 points)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>משתתף:38985</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>20.9763409466208</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H24" s="3" t="inlineStr">
-        <is>
-          <t>Extensibility (3.0/10)
-Project Planning (0.0/10)
-Quality Standards (2.0/10)
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>20.98</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
+        <is>
+          <t>Project Planning (0.0/10)
+Quality Standards (3.5/10)
+Extensibility (2.5/10)
 Address Project Planning (0/10 points)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>משתתף:38986</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>42.26755467544957</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
-        <is>
-          <t>Extensibility (0.0/10)
-Costs Pricing (2.0/10)
-Address Extensibility (0/10 points)</t>
-        </is>
-      </c>
-    </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>משתתף:38988</t>
+          <t>משתתף:38986</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1462,7 +1460,7 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>48.30075479903226</v>
+        <v>42.27</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>100</v>
@@ -1474,24 +1472,25 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.0/10)</t>
+          <t>Extensibility (1.0/10)
+Costs Pricing (2.0/10)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>משתתף:38989</t>
+          <t>משתתף:38988</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1500,7 +1499,7 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>48.30075479903226</v>
+        <v>48.3</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>100</v>
@@ -1512,175 +1511,213 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.0/10)</t>
+          <t>Quality Standards (4.5/10)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>משתתף:38989</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>48.3</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (4.5/10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>משתתף:38990</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>18.66698663275016</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H28" s="3" t="inlineStr">
-        <is>
-          <t>Extensibility (0.0/10)
-Quality Standards (2.0/10)
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (2.0/10)
+Extensibility (0.0/10)
 Costs Pricing (0.0/10)
 Address Extensibility (0/10 points)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>משתתף:38992</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>42.26755467544957</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H29" s="3" t="inlineStr">
-        <is>
-          <t>Extensibility (0.0/10)
-Costs Pricing (2.0/10)
-Address Extensibility (0/10 points)</t>
-        </is>
-      </c>
-    </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>משתתף:38992</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>42.27</v>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>Extensibility (1.0/10)
+Costs Pricing (2.0/10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>משתתף:38993</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>37.44786130765369</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H30" s="3" t="inlineStr">
-        <is>
-          <t>Quality Standards (2.0/10)
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (3.5/10)
+Extensibility (4.5/10)
 Costs Pricing (0.0/10)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>משתתף:48951</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
         <v>8.529999999999999</v>
       </c>
-      <c r="D31" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="D32" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>2025-12-02</t>
         </is>
       </c>
-      <c r="H31" s="3" t="inlineStr">
+      <c r="H32" s="3" t="inlineStr">
         <is>
           <t>Testing Quality (0.0/10)
 Project Planning (0.0/10)
@@ -1690,50 +1727,10 @@
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>משתתף:59373</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>35.77035289180932</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H32" s="3" t="inlineStr">
-        <is>
-          <t>Ui Ux (4.0/10)
-Extensibility (3.0/10)
-Quality Standards (3.0/10)</t>
-        </is>
-      </c>
-    </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>משתתף:59375</t>
+          <t>משתתף:59373</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1742,7 +1739,7 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>71.16323769537362</v>
+        <v>35.77</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>100</v>
@@ -1754,97 +1751,135 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (3.0/10)
-Quality Standards (0.0/10)
-Address Quality Standards (0/10 points)</t>
+          <t>Ui Ux (4.0/10)
+Quality Standards (3.0/10)
+Extensibility (4.5/10)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>משתתף:59375</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>71.16</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H34" s="3" t="inlineStr">
+        <is>
+          <t>Quality Standards (1.5/10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>משתתף:59376</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>12.28359941721424</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E34" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H34" s="3" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="inlineStr">
         <is>
           <t>Project Planning (0.0/10)
-Quality Standards (2.0/10)
-Costs Pricing (0.0/10)
+Quality Standards (3.5/10)
+Version Management (4.0/10)
 Address Project Planning (0/10 points)
 Address Costs Pricing (0/10 points)</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>משתתף:59378</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">הוגש למתן ציון -  - </t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>89.5581315406062</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E35" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2025-12-02</t>
-        </is>
-      </c>
-      <c r="H35" s="3" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>89.56</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="inlineStr">
         <is>
           <t>Good work! Continue improving based on recommendations.</t>
         </is>

--- a/StudentGradesMoodleFormat/Assignment1_Moodle_Grades.xlsx
+++ b/StudentGradesMoodleFormat/Assignment1_Moodle_Grades.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,11 @@
           <t>הערות למשוב</t>
         </is>
       </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Calculated Grade (Tier 2)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,7 +509,7 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>2.48</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>100</v>
@@ -526,10 +531,12 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Version Management (3.0/10)
-Extensibility (4.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Testing Quality, Research Analysis, Code Documentation. Focus on improving: Quality Standards, Version Management, Extensibility. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -544,7 +551,7 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>42.76</v>
+        <v>95</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>100</v>
@@ -566,10 +573,12 @@
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (1.5/10)
-Extensibility (2.5/10)
-Config Security (4.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Project Planning, Testing Quality, Version Management. Focus on improving: Quality Standards, Extensibility, Config Security. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="4">
@@ -584,7 +593,7 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>35.77</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>100</v>
@@ -606,10 +615,12 @@
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
-          <t>Ui Ux (4.0/10)
-Quality Standards (3.0/10)
-Version Management (3.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Project Planning, Research Analysis, Testing Quality. Focus on improving: Ui Ux, Quality Standards, Version Management. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="5">
@@ -624,7 +635,7 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>48.3</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>100</v>
@@ -646,8 +657,12 @@
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (4.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Project Planning, Research Analysis, Version Management. Focus on improving: Quality Standards. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -662,7 +677,7 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>67.02</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>100</v>
@@ -684,9 +699,12 @@
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Config Security (4.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Ui Ux, Version Management, Testing Quality. Focus on improving: Quality Standards, Config Security. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -701,7 +719,7 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>38.4</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
@@ -723,11 +741,12 @@
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (1.5/10)
-Costs Pricing (0.0/10)
-Extensibility (4.5/10)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Research Analysis, Testing Quality, Version Management. Focus on improving: Quality Standards, Costs Pricing, Extensibility. Priority actions: Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -742,7 +761,7 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>2.48</v>
+        <v>100</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
@@ -764,10 +783,12 @@
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Extensibility (4.5/10)
-Version Management (3.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Research Analysis, Testing Quality, Code Documentation. Focus on improving: Quality Standards, Extensibility, Version Management. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +803,7 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>71.16</v>
+        <v>92</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>100</v>
@@ -804,8 +825,12 @@
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (1.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Project Planning, Testing Quality. Focus on improving: Quality Standards. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -820,7 +845,7 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>60.05</v>
+        <v>100</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>100</v>
@@ -842,8 +867,12 @@
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (1.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Quality Standards, Project Planning. Focus on improving: Extensibility. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -858,7 +887,7 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>23.63</v>
+        <v>100</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>100</v>
@@ -880,10 +909,12 @@
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (0.0/10)
-Config Security (4.0/10)
-Address Quality Standards (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Version Management, Project Planning. Focus on improving: Quality Standards, Config Security. Priority actions: Address Quality Standards. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
@@ -898,7 +929,7 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>32.27</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>100</v>
@@ -920,10 +951,12 @@
       </c>
       <c r="H12" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Version Management (3.0/10)
-Extensibility (4.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Research Analysis, Ui Ux, Testing Quality. Focus on improving: Quality Standards, Version Management, Extensibility. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -938,7 +971,7 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>67.02</v>
+        <v>89</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>100</v>
@@ -960,9 +993,12 @@
       </c>
       <c r="H13" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Config Security (4.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Ui Ux, Version Management, Testing Quality. Focus on improving: Quality Standards, Config Security. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -977,7 +1013,7 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>20.98</v>
+        <v>79</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>100</v>
@@ -999,12 +1035,12 @@
       </c>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>Project Planning (0.0/10)
-Quality Standards (3.5/10)
-Extensibility (2.5/10)
-Address Project Planning (0/10 points)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates developing skills that show promise. Key strengths: Research Analysis, Testing Quality, Code Documentation. Focus on improving: Project Planning, Quality Standards, Extensibility. Priority actions: Address Project Planning, Address Costs Pricing. Focus on the priority areas outlined - you have strong potential for growth.</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1019,7 +1055,7 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>12.28</v>
+        <v>95</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>100</v>
@@ -1041,12 +1077,12 @@
       </c>
       <c r="H15" s="3" t="inlineStr">
         <is>
-          <t>Project Planning (0.0/10)
-Quality Standards (3.5/10)
-Version Management (4.0/10)
-Address Project Planning (0/10 points)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Research Analysis, Testing Quality, Config Security. Focus on improving: Project Planning, Quality Standards, Version Management. Priority actions: Address Project Planning, Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1061,7 +1097,7 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>60.05</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>100</v>
@@ -1083,8 +1119,12 @@
       </c>
       <c r="H16" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (1.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Testing Quality, Quality Standards. Focus on improving: Extensibility. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1099,33 +1139,34 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates developing skills that show promise. Key strengths: Research Analysis, Testing Quality, Code Documentation. Focus on improving: Project Planning, Ui Ux, Quality Standards. Priority actions: Address Project Planning. Focus on the priority areas outlined - you have strong potential for growth.</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>Project Planning (0.0/10)
-Ui Ux (3.0/10)
-Quality Standards (2.0/10)
-Address Project Planning (0/10 points)</t>
-        </is>
       </c>
     </row>
     <row r="18">
@@ -1140,33 +1181,34 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H18" s="3" t="inlineStr">
+        <is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates developing skills that show promise. Key strengths: Research Analysis, Testing Quality, Code Documentation. Focus on improving: Project Planning, Ui Ux, Quality Standards. Priority actions: Address Project Planning. Focus on the priority areas outlined - you have strong potential for growth.</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>כן</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-12-04</t>
-        </is>
-      </c>
-      <c r="H18" s="3" t="inlineStr">
-        <is>
-          <t>Project Planning (0.0/10)
-Ui Ux (3.0/10)
-Quality Standards (2.0/10)
-Address Project Planning (0/10 points)</t>
-        </is>
       </c>
     </row>
     <row r="19">
@@ -1181,7 +1223,7 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>23.63</v>
+        <v>100</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>100</v>
@@ -1203,10 +1245,12 @@
       </c>
       <c r="H19" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (0.0/10)
-Config Security (4.0/10)
-Address Quality Standards (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Testing Quality, Version Management. Focus on improving: Quality Standards, Config Security. Priority actions: Address Quality Standards. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -1221,7 +1265,7 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>72.14</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>100</v>
@@ -1243,8 +1287,12 @@
       </c>
       <c r="H20" s="3" t="inlineStr">
         <is>
-          <t>Good work! Continue improving based on recommendations.</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Testing Quality, Project Planning. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -1259,7 +1307,7 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>72.14</v>
+        <v>95</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>100</v>
@@ -1281,8 +1329,12 @@
       </c>
       <c r="H21" s="3" t="inlineStr">
         <is>
-          <t>Good work! Continue improving based on recommendations.</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Testing Quality, Project Planning. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1349,7 @@
         </is>
       </c>
       <c r="C22" s="2" t="n">
-        <v>89.56</v>
+        <v>95</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>100</v>
@@ -1319,8 +1371,12 @@
       </c>
       <c r="H22" s="3" t="inlineStr">
         <is>
-          <t>Good work! Continue improving based on recommendations.</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Quality Standards, Project Planning. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="23">
@@ -1335,7 +1391,7 @@
         </is>
       </c>
       <c r="C23" s="2" t="n">
-        <v>37.45</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>100</v>
@@ -1357,11 +1413,12 @@
       </c>
       <c r="H23" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Extensibility (4.5/10)
-Costs Pricing (0.0/10)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Project Planning, Testing Quality. Focus on improving: Quality Standards, Extensibility, Costs Pricing. Priority actions: Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="24">
@@ -1376,7 +1433,7 @@
         </is>
       </c>
       <c r="C24" s="2" t="n">
-        <v>18.67</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>100</v>
@@ -1398,12 +1455,12 @@
       </c>
       <c r="H24" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
-Extensibility (0.0/10)
-Costs Pricing (0.0/10)
-Address Extensibility (0/10 points)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Testing Quality, Version Management. Focus on improving: Quality Standards, Extensibility, Costs Pricing. Priority actions: Address Extensibility, Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25">
@@ -1418,7 +1475,7 @@
         </is>
       </c>
       <c r="C25" s="2" t="n">
-        <v>20.98</v>
+        <v>79</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>100</v>
@@ -1440,12 +1497,12 @@
       </c>
       <c r="H25" s="3" t="inlineStr">
         <is>
-          <t>Project Planning (0.0/10)
-Quality Standards (3.5/10)
-Extensibility (2.5/10)
-Address Project Planning (0/10 points)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates developing skills that show promise. Key strengths: Testing Quality, Research Analysis, Code Documentation. Focus on improving: Project Planning, Quality Standards, Extensibility. Priority actions: Address Project Planning, Address Costs Pricing. Focus on the priority areas outlined - you have strong potential for growth.</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -1460,7 +1517,7 @@
         </is>
       </c>
       <c r="C26" s="2" t="n">
-        <v>42.27</v>
+        <v>93</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>100</v>
@@ -1482,9 +1539,12 @@
       </c>
       <c r="H26" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (1.0/10)
-Costs Pricing (2.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Testing Quality, Version Management. Focus on improving: Extensibility, Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1499,7 +1559,7 @@
         </is>
       </c>
       <c r="C27" s="2" t="n">
-        <v>48.3</v>
+        <v>100</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>100</v>
@@ -1521,8 +1581,12 @@
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (4.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Project Planning, Research Analysis, Testing Quality. Focus on improving: Quality Standards. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -1537,7 +1601,7 @@
         </is>
       </c>
       <c r="C28" s="2" t="n">
-        <v>48.3</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>100</v>
@@ -1559,8 +1623,12 @@
       </c>
       <c r="H28" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (4.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Project Planning, Research Analysis, Testing Quality. Focus on improving: Quality Standards. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -1575,7 +1643,7 @@
         </is>
       </c>
       <c r="C29" s="2" t="n">
-        <v>18.67</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>100</v>
@@ -1597,12 +1665,12 @@
       </c>
       <c r="H29" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (2.0/10)
-Extensibility (0.0/10)
-Costs Pricing (0.0/10)
-Address Extensibility (0/10 points)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Testing Quality, Version Management. Focus on improving: Quality Standards, Extensibility, Costs Pricing. Priority actions: Address Extensibility, Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1617,7 +1685,7 @@
         </is>
       </c>
       <c r="C30" s="2" t="n">
-        <v>42.27</v>
+        <v>93</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>100</v>
@@ -1639,9 +1707,12 @@
       </c>
       <c r="H30" s="3" t="inlineStr">
         <is>
-          <t>Extensibility (1.0/10)
-Costs Pricing (2.0/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Testing Quality, Version Management. Focus on improving: Extensibility, Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1656,7 +1727,7 @@
         </is>
       </c>
       <c r="C31" s="2" t="n">
-        <v>37.45</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>100</v>
@@ -1678,17 +1749,18 @@
       </c>
       <c r="H31" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (3.5/10)
-Extensibility (4.5/10)
-Costs Pricing (0.0/10)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Ui Ux, Project Planning, Research Analysis. Focus on improving: Quality Standards, Extensibility, Costs Pricing. Priority actions: Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>משתתף:48951</t>
+          <t>משתתף:59373</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1697,7 +1769,7 @@
         </is>
       </c>
       <c r="C32" s="2" t="n">
-        <v>8.529999999999999</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>100</v>
@@ -1709,28 +1781,28 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-12-02</t>
+          <t>2025-12-04</t>
         </is>
       </c>
       <c r="H32" s="3" t="inlineStr">
         <is>
-          <t>Testing Quality (0.0/10)
-Project Planning (0.0/10)
-Research Analysis (0.0/10)
-Address Testing Quality (0/10 points)
-Address Project Planning (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Project Planning, Testing Quality, Research Analysis. Focus on improving: Ui Ux, Quality Standards, Extensibility. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>משתתף:59373</t>
+          <t>משתתף:59375</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1739,7 +1811,7 @@
         </is>
       </c>
       <c r="C33" s="2" t="n">
-        <v>35.77</v>
+        <v>92</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>100</v>
@@ -1761,16 +1833,18 @@
       </c>
       <c r="H33" s="3" t="inlineStr">
         <is>
-          <t>Ui Ux (4.0/10)
-Quality Standards (3.0/10)
-Extensibility (4.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Project Planning, Testing Quality. Focus on improving: Quality Standards. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>משתתף:59375</t>
+          <t>משתתף:59376</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1779,7 +1853,7 @@
         </is>
       </c>
       <c r="C34" s="2" t="n">
-        <v>71.16</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>100</v>
@@ -1801,14 +1875,18 @@
       </c>
       <c r="H34" s="3" t="inlineStr">
         <is>
-          <t>Quality Standards (1.5/10)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates good potential with room for growth. Key strengths: Research Analysis, Testing Quality, Config Security. Focus on improving: Project Planning, Quality Standards, Version Management. Priority actions: Address Project Planning, Address Costs Pricing. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>משתתף:59376</t>
+          <t>משתתף:59378</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1817,7 +1895,7 @@
         </is>
       </c>
       <c r="C35" s="2" t="n">
-        <v>12.28</v>
+        <v>95</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>100</v>
@@ -1839,18 +1917,18 @@
       </c>
       <c r="H35" s="3" t="inlineStr">
         <is>
-          <t>Project Planning (0.0/10)
-Quality Standards (3.5/10)
-Version Management (4.0/10)
-Address Project Planning (0/10 points)
-Address Costs Pricing (0/10 points)</t>
-        </is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Quality Standards, Project Planning. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>משתתף:59378</t>
+          <t>משתתף:38957</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1858,13 +1936,13 @@
           <t xml:space="preserve">הוגש למתן ציון -  - </t>
         </is>
       </c>
-      <c r="C36" s="2" t="n">
-        <v>89.56</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E36" s="2" t="inlineStr">
+      <c r="C36" t="n">
+        <v>95</v>
+      </c>
+      <c r="D36" t="n">
+        <v>100</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>כן</t>
         </is>
@@ -1879,10 +1957,56 @@
           <t>2025-12-04</t>
         </is>
       </c>
-      <c r="H36" s="3" t="inlineStr">
-        <is>
-          <t>Good work! Continue improving based on recommendations.</t>
-        </is>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates strong foundation. Key strengths: Project Planning, Testing Quality, Version Management. Focus on improving: Quality Standards, Extensibility, Config Security. With focused improvements in these areas, you can excel in future assignments.</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>משתתף:38961</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">הוגש למתן ציון -  - </t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>92</v>
+      </c>
+      <c r="D37" t="n">
+        <v>100</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>כן</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Thank you for your submission. For this first assignment I have decided to take your self-submitted grade as your grade for this assignment since many students over-estimated their grades, and suffered severe penalties. You can see the grade you would have gotten on this assignment in the next column. Do not let this discourage you, you have a lot of potential, and can perform strongly in the future with more effort.
+Your submission demonstrates excellent work. Key strengths: Ui Ux, Project Planning, Testing Quality. Focus on improving: Quality Standards. Continue building on your strong foundation for future assignments.</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
